--- a/core/utils/cadenderecoBC.xlsx
+++ b/core/utils/cadenderecoBC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB9BD5-F68D-404B-B7CC-DF17FBDFA8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A077290-B5A3-4D0E-931C-72841A984EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="280">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -153,9 +153,6 @@
     <t>09</t>
   </si>
   <si>
-    <t>NEI - MARIA FRANCISCA</t>
-  </si>
-  <si>
     <t>3018</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>NEI - PRIMEIRO PASSO</t>
-  </si>
-  <si>
     <t>3020</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>C.E.M. LILI</t>
-  </si>
-  <si>
     <t>3042</t>
   </si>
   <si>
@@ -460,6 +451,420 @@
   </si>
   <si>
     <t>C.E.M. VEREADOR SANTA</t>
+  </si>
+  <si>
+    <t>(47) 3264-1271</t>
+  </si>
+  <si>
+    <t>rua dom diniz</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>88337-085</t>
+  </si>
+  <si>
+    <t>vila real</t>
+  </si>
+  <si>
+    <t>(47) 3360-8618</t>
+  </si>
+  <si>
+    <t>rua bem-te-vi</t>
+  </si>
+  <si>
+    <t>s/nº</t>
+  </si>
+  <si>
+    <t>88330-000</t>
+  </si>
+  <si>
+    <t>(47) 3267-7096</t>
+  </si>
+  <si>
+    <t>avenida rodesindo pavam</t>
+  </si>
+  <si>
+    <t>estaleiro</t>
+  </si>
+  <si>
+    <t>88334-000</t>
+  </si>
+  <si>
+    <t>rua maria joaquina corrêa</t>
+  </si>
+  <si>
+    <t>(47) 3264-0440</t>
+  </si>
+  <si>
+    <t>barra</t>
+  </si>
+  <si>
+    <t>88332-200</t>
+  </si>
+  <si>
+    <t>nova esperança</t>
+  </si>
+  <si>
+    <t>rua isaías serrão</t>
+  </si>
+  <si>
+    <t>88330-003</t>
+  </si>
+  <si>
+    <t>(47) 3267-7025</t>
+  </si>
+  <si>
+    <t>(47) 3264-1320</t>
+  </si>
+  <si>
+    <t>rua apiúna</t>
+  </si>
+  <si>
+    <t>88337-510</t>
+  </si>
+  <si>
+    <t>(47) 3263-2555</t>
+  </si>
+  <si>
+    <t>rua higino joão pio</t>
+  </si>
+  <si>
+    <t>estaleirinho</t>
+  </si>
+  <si>
+    <t>pioneiros</t>
+  </si>
+  <si>
+    <t>88334-660</t>
+  </si>
+  <si>
+    <t>rua Juvêncio Delfino da Silva</t>
+  </si>
+  <si>
+    <t>(47) 3264-0265</t>
+  </si>
+  <si>
+    <t>88336-240</t>
+  </si>
+  <si>
+    <t>Jardim Iate Clube</t>
+  </si>
+  <si>
+    <t>88337-255</t>
+  </si>
+  <si>
+    <t>rua dom rodrigo</t>
+  </si>
+  <si>
+    <t>(47) 3361-1090</t>
+  </si>
+  <si>
+    <t>rua síria</t>
+  </si>
+  <si>
+    <t>nações</t>
+  </si>
+  <si>
+    <t>(47) 3360-7016</t>
+  </si>
+  <si>
+    <t>rua angelina</t>
+  </si>
+  <si>
+    <t>88337-490</t>
+  </si>
+  <si>
+    <t>(47) 3366-0159</t>
+  </si>
+  <si>
+    <t>rua pernambuco</t>
+  </si>
+  <si>
+    <t>(47) 3363-8057</t>
+  </si>
+  <si>
+    <t>estados</t>
+  </si>
+  <si>
+    <t>(47) 3264-1275</t>
+  </si>
+  <si>
+    <t>rua dom abelardo</t>
+  </si>
+  <si>
+    <t>88337-145</t>
+  </si>
+  <si>
+    <t>rua juvêncio delfino da silva</t>
+  </si>
+  <si>
+    <t>(47) 3361-9365</t>
+  </si>
+  <si>
+    <t>(47) 3264-1265</t>
+  </si>
+  <si>
+    <t>rua dom fradique</t>
+  </si>
+  <si>
+    <t>jardim iate clube</t>
+  </si>
+  <si>
+    <t>88337-250</t>
+  </si>
+  <si>
+    <t>rua miguel matte</t>
+  </si>
+  <si>
+    <t>taquaras</t>
+  </si>
+  <si>
+    <t>88331-030</t>
+  </si>
+  <si>
+    <t>(47) 3367-4260</t>
+  </si>
+  <si>
+    <t>(47) 3264-9733</t>
+  </si>
+  <si>
+    <t>rua jardim da saudade</t>
+  </si>
+  <si>
+    <t>88332-055</t>
+  </si>
+  <si>
+    <t>rua paquistão</t>
+  </si>
+  <si>
+    <t>(47) 3360-7025</t>
+  </si>
+  <si>
+    <t>88338-065</t>
+  </si>
+  <si>
+    <t>rua maria maurícia pereira</t>
+  </si>
+  <si>
+    <t>são judas tadeu</t>
+  </si>
+  <si>
+    <t>88332-460</t>
+  </si>
+  <si>
+    <t>(47) 3363-4605</t>
+  </si>
+  <si>
+    <t>(47) 3363-9873</t>
+  </si>
+  <si>
+    <t>rua bom retiro</t>
+  </si>
+  <si>
+    <t>municípios</t>
+  </si>
+  <si>
+    <t>88337-420</t>
+  </si>
+  <si>
+    <t>rua angelina, anexo ao caic</t>
+  </si>
+  <si>
+    <t>88337-470</t>
+  </si>
+  <si>
+    <t>anexo ao caic</t>
+  </si>
+  <si>
+    <t>(47) 3363-5245</t>
+  </si>
+  <si>
+    <t>rua maria mansoto</t>
+  </si>
+  <si>
+    <t>88332-500</t>
+  </si>
+  <si>
+    <t>(47) 3366-8142</t>
+  </si>
+  <si>
+    <t>(47) 3366-4269</t>
+  </si>
+  <si>
+    <t>rua itália</t>
+  </si>
+  <si>
+    <t>88338-265</t>
+  </si>
+  <si>
+    <t>(47) 3263-0947</t>
+  </si>
+  <si>
+    <t>ariribá</t>
+  </si>
+  <si>
+    <t>88333-120</t>
+  </si>
+  <si>
+    <t>(47) 3361-1186</t>
+  </si>
+  <si>
+    <t>linha de acesso praias</t>
+  </si>
+  <si>
+    <t>avenida rodesino pavan - linha de acesso praias</t>
+  </si>
+  <si>
+    <t>avenida dos tucanos</t>
+  </si>
+  <si>
+    <t>88338-610</t>
+  </si>
+  <si>
+    <t>(47) 3361-9356</t>
+  </si>
+  <si>
+    <t>(47) 3366-8219</t>
+  </si>
+  <si>
+    <t>rua 3020</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>(47) 3267-7019</t>
+  </si>
+  <si>
+    <t>avenida Hermógenes Assis Feijó</t>
+  </si>
+  <si>
+    <t>88340-000</t>
+  </si>
+  <si>
+    <t>(47) 3361-5856</t>
+  </si>
+  <si>
+    <t>(47) 3366-6292</t>
+  </si>
+  <si>
+    <t>rua vereador domingos fonseca</t>
+  </si>
+  <si>
+    <t>praia do estaleiro</t>
+  </si>
+  <si>
+    <t>88334-080</t>
+  </si>
+  <si>
+    <t>(47) 3267-7176</t>
+  </si>
+  <si>
+    <t>C.E.M. DONA LILI</t>
+  </si>
+  <si>
+    <t>RUA FERMINO TAVEIRA CRUZ</t>
+  </si>
+  <si>
+    <t>BARRA</t>
+  </si>
+  <si>
+    <t>88332-050</t>
+  </si>
+  <si>
+    <t>(47) 3267-7042</t>
+  </si>
+  <si>
+    <t>RUA HIGINO JOÃO PIO</t>
+  </si>
+  <si>
+    <t>(47) 3264-7881</t>
+  </si>
+  <si>
+    <t>AVENIDA SANTA CATARINA</t>
+  </si>
+  <si>
+    <t>(47) 3267-7074</t>
+  </si>
+  <si>
+    <t>RUA DOM HENRIQUE</t>
+  </si>
+  <si>
+    <t>88337-260</t>
+  </si>
+  <si>
+    <t>(47) 3267-7188</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ HONORATO DA SILVA - ESQ. JOSÉ ALVES CABRA</t>
+  </si>
+  <si>
+    <t>ESQ. JOSÉ ALVES CABRA</t>
+  </si>
+  <si>
+    <t>88336-070</t>
+  </si>
+  <si>
+    <t>(47) 3366-8706</t>
+  </si>
+  <si>
+    <t>RUA PARAGUAI</t>
+  </si>
+  <si>
+    <t>88338-190</t>
+  </si>
+  <si>
+    <t>(47) 3360-0728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA ITÁLIA </t>
+  </si>
+  <si>
+    <t>88338-260</t>
+  </si>
+  <si>
+    <t>(47) 3267-7021</t>
+  </si>
+  <si>
+    <t>RUA DOM FRANCISCO</t>
+  </si>
+  <si>
+    <t>88330-239</t>
+  </si>
+  <si>
+    <t>(47) 3360-0716</t>
+  </si>
+  <si>
+    <t>AVENIDA RODESINDO PAVAN</t>
+  </si>
+  <si>
+    <t>88333-150</t>
+  </si>
+  <si>
+    <t>(47) 3267-7085</t>
+  </si>
+  <si>
+    <t>RUA BIGUAÇU</t>
+  </si>
+  <si>
+    <t>(47) 3268-7303</t>
+  </si>
+  <si>
+    <t>RUA 2450</t>
+  </si>
+  <si>
+    <t>88330-410</t>
+  </si>
+  <si>
+    <t>(47) 3267-7078</t>
+  </si>
+  <si>
+    <t>NEI - DONA MARIA FRANCISCA</t>
+  </si>
+  <si>
+    <t>NEI - MEU PRIMEIRO PASSO</t>
   </si>
 </sst>
 </file>
@@ -1202,17 +1607,17 @@
   <dimension ref="A1:AE701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="37.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
@@ -1342,12 +1747,24 @@
       <c r="D3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="E3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="20">
+        <v>350</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="K3" s="25" t="s">
         <v>15</v>
       </c>
@@ -1389,12 +1806,24 @@
       <c r="D4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="K4" s="25" t="s">
         <v>15</v>
       </c>
@@ -1436,12 +1865,24 @@
       <c r="D5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="20">
+        <v>3929</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="K5" s="25" t="s">
         <v>15</v>
       </c>
@@ -1483,12 +1924,24 @@
       <c r="D6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="20"/>
+      <c r="E6" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="20">
+        <v>307</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="K6" s="25" t="s">
         <v>15</v>
       </c>
@@ -1530,12 +1983,24 @@
       <c r="D7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="20"/>
+      <c r="E7" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="20">
+        <v>76</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="K7" s="25" t="s">
         <v>15</v>
       </c>
@@ -1577,12 +2042,24 @@
       <c r="D8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="20"/>
+      <c r="E8" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="20">
+        <v>137</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="K8" s="25" t="s">
         <v>15</v>
       </c>
@@ -1624,12 +2101,24 @@
       <c r="D9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="20"/>
+      <c r="E9" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="20">
+        <v>124</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>170</v>
+      </c>
       <c r="K9" s="25" t="s">
         <v>15</v>
       </c>
@@ -1669,14 +2158,26 @@
         <v>41</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="20">
+        <v>360</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="K10" s="25" t="s">
         <v>15</v>
       </c>
@@ -1710,20 +2211,32 @@
         <v>15</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
+      <c r="E11" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="K11" s="25" t="s">
         <v>15</v>
       </c>
@@ -1757,20 +2270,32 @@
         <v>15</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>47</v>
-      </c>
       <c r="D12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="20"/>
+        <v>279</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="20">
+        <v>756</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="K12" s="25" t="s">
         <v>15</v>
       </c>
@@ -1804,20 +2329,32 @@
         <v>15</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="20"/>
+      <c r="E13" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="20">
+        <v>598</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="K13" s="25" t="s">
         <v>15</v>
       </c>
@@ -1851,20 +2388,32 @@
         <v>15</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="20"/>
+      <c r="E14" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="20">
+        <v>500</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="K14" s="25" t="s">
         <v>15</v>
       </c>
@@ -1898,20 +2447,32 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="20"/>
+      <c r="E15" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="20">
+        <v>518</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="K15" s="25" t="s">
         <v>15</v>
       </c>
@@ -1945,20 +2506,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="20"/>
+      <c r="E16" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="20">
+        <v>331</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="K16" s="25" t="s">
         <v>15</v>
       </c>
@@ -1992,20 +2565,32 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="20"/>
+      <c r="E17" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="20">
+        <v>100</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="K17" s="25" t="s">
         <v>15</v>
       </c>
@@ -2039,20 +2624,32 @@
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="20"/>
+      <c r="E18" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="20">
+        <v>225</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="K18" s="25" t="s">
         <v>15</v>
       </c>
@@ -2086,20 +2683,32 @@
         <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="20"/>
+      <c r="E19" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="K19" s="25" t="s">
         <v>15</v>
       </c>
@@ -2133,20 +2742,32 @@
         <v>15</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="20"/>
+      <c r="E20" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="20">
+        <v>360</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="K20" s="25" t="s">
         <v>15</v>
       </c>
@@ -2180,20 +2801,32 @@
         <v>15</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="20"/>
+      <c r="E21" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="20">
+        <v>22</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="K21" s="25" t="s">
         <v>15</v>
       </c>
@@ -2227,20 +2860,32 @@
         <v>15</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="20"/>
+      <c r="E22" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="20">
+        <v>585</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="K22" s="25" t="s">
         <v>15</v>
       </c>
@@ -2274,20 +2919,32 @@
         <v>15</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="20"/>
+      <c r="E23" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="K23" s="25" t="s">
         <v>15</v>
       </c>
@@ -2321,20 +2978,32 @@
         <v>15</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="20"/>
+      <c r="E24" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="20">
+        <v>70</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>219</v>
+      </c>
       <c r="K24" s="25" t="s">
         <v>15</v>
       </c>
@@ -2368,20 +3037,32 @@
         <v>15</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="20"/>
+      <c r="E25" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="20">
+        <v>595</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="K25" s="25" t="s">
         <v>15</v>
       </c>
@@ -2415,20 +3096,32 @@
         <v>15</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="E26" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1001</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="K26" s="25" t="s">
         <v>15</v>
       </c>
@@ -2462,20 +3155,32 @@
         <v>15</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="20"/>
+      <c r="E27" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="K27" s="25" t="s">
         <v>15</v>
       </c>
@@ -2509,20 +3214,32 @@
         <v>15</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="E28" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="20">
+        <v>290</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>231</v>
+      </c>
       <c r="K28" s="25" t="s">
         <v>15</v>
       </c>
@@ -2556,20 +3273,32 @@
         <v>15</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="E29" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="K29" s="25" t="s">
         <v>15</v>
       </c>
@@ -2603,20 +3332,32 @@
         <v>15</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="20"/>
+      <c r="E30" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="20">
+        <v>160</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="K30" s="25" t="s">
         <v>15</v>
       </c>
@@ -2650,20 +3391,32 @@
         <v>15</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="20"/>
+      <c r="E31" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="K31" s="25" t="s">
         <v>15</v>
       </c>
@@ -2697,20 +3450,32 @@
         <v>15</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="20"/>
+      <c r="E32" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="20">
+        <v>60</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>231</v>
+      </c>
       <c r="K32" s="25" t="s">
         <v>15</v>
       </c>
@@ -2744,20 +3509,32 @@
         <v>15</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="20"/>
+      <c r="E33" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="20">
+        <v>879</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>243</v>
+      </c>
       <c r="K33" s="25" t="s">
         <v>15</v>
       </c>
@@ -2791,20 +3568,32 @@
         <v>15</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="20"/>
+        <v>245</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="20">
+        <v>219</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>248</v>
+      </c>
       <c r="K34" s="25" t="s">
         <v>15</v>
       </c>
@@ -2838,20 +3627,32 @@
         <v>15</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>170</v>
+      </c>
       <c r="K35" s="25" t="s">
         <v>15</v>
       </c>
@@ -2885,20 +3686,32 @@
         <v>15</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="20"/>
+        <v>117</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="20">
+        <v>637</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>238</v>
+      </c>
       <c r="K36" s="25" t="s">
         <v>15</v>
       </c>
@@ -2932,20 +3745,32 @@
         <v>15</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="20">
+        <v>903</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>255</v>
+      </c>
       <c r="K37" s="25" t="s">
         <v>15</v>
       </c>
@@ -2979,20 +3804,32 @@
         <v>15</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="K38" s="25" t="s">
         <v>15</v>
       </c>
@@ -3026,20 +3863,32 @@
         <v>15</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="G39" s="20">
+        <v>1005</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="K39" s="25" t="s">
         <v>15</v>
       </c>
@@ -3073,20 +3922,32 @@
         <v>15</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="20">
+        <v>977</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="K40" s="25" t="s">
         <v>15</v>
       </c>
@@ -3120,20 +3981,32 @@
         <v>15</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" s="20">
+        <v>450</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>268</v>
+      </c>
       <c r="K41" s="25" t="s">
         <v>15</v>
       </c>
@@ -3167,20 +4040,32 @@
         <v>15</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="20"/>
+        <v>135</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1405</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="K42" s="25" t="s">
         <v>15</v>
       </c>
@@ -3214,20 +4099,32 @@
         <v>15</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="20"/>
+        <v>138</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="20">
+        <v>841</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="K43" s="25" t="s">
         <v>15</v>
       </c>
@@ -3261,20 +4158,32 @@
         <v>15</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D44" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G44" s="20">
+        <v>420</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="20"/>
+      <c r="I44" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="K44" s="25" t="s">
         <v>15</v>
       </c>

--- a/core/utils/cadenderecoBC.xlsx
+++ b/core/utils/cadenderecoBC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A077290-B5A3-4D0E-931C-72841A984EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989909B-44A8-46A1-B95D-6E85FEA16FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="153">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -453,418 +453,37 @@
     <t>C.E.M. VEREADOR SANTA</t>
   </si>
   <si>
-    <t>(47) 3264-1271</t>
-  </si>
-  <si>
-    <t>rua dom diniz</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>88337-085</t>
-  </si>
-  <si>
-    <t>vila real</t>
-  </si>
-  <si>
-    <t>(47) 3360-8618</t>
-  </si>
-  <si>
-    <t>rua bem-te-vi</t>
-  </si>
-  <si>
-    <t>s/nº</t>
-  </si>
-  <si>
-    <t>88330-000</t>
-  </si>
-  <si>
-    <t>(47) 3267-7096</t>
-  </si>
-  <si>
-    <t>avenida rodesindo pavam</t>
-  </si>
-  <si>
-    <t>estaleiro</t>
-  </si>
-  <si>
-    <t>88334-000</t>
-  </si>
-  <si>
-    <t>rua maria joaquina corrêa</t>
-  </si>
-  <si>
-    <t>(47) 3264-0440</t>
-  </si>
-  <si>
-    <t>barra</t>
-  </si>
-  <si>
-    <t>88332-200</t>
-  </si>
-  <si>
-    <t>nova esperança</t>
-  </si>
-  <si>
-    <t>rua isaías serrão</t>
-  </si>
-  <si>
-    <t>88330-003</t>
-  </si>
-  <si>
-    <t>(47) 3267-7025</t>
-  </si>
-  <si>
-    <t>(47) 3264-1320</t>
-  </si>
-  <si>
-    <t>rua apiúna</t>
-  </si>
-  <si>
-    <t>88337-510</t>
-  </si>
-  <si>
-    <t>(47) 3263-2555</t>
-  </si>
-  <si>
-    <t>rua higino joão pio</t>
-  </si>
-  <si>
-    <t>estaleirinho</t>
-  </si>
-  <si>
-    <t>pioneiros</t>
-  </si>
-  <si>
-    <t>88334-660</t>
-  </si>
-  <si>
-    <t>rua Juvêncio Delfino da Silva</t>
-  </si>
-  <si>
-    <t>(47) 3264-0265</t>
-  </si>
-  <si>
-    <t>88336-240</t>
-  </si>
-  <si>
-    <t>Jardim Iate Clube</t>
-  </si>
-  <si>
-    <t>88337-255</t>
-  </si>
-  <si>
-    <t>rua dom rodrigo</t>
-  </si>
-  <si>
-    <t>(47) 3361-1090</t>
-  </si>
-  <si>
-    <t>rua síria</t>
-  </si>
-  <si>
-    <t>nações</t>
-  </si>
-  <si>
-    <t>(47) 3360-7016</t>
-  </si>
-  <si>
-    <t>rua angelina</t>
-  </si>
-  <si>
-    <t>88337-490</t>
-  </si>
-  <si>
-    <t>(47) 3366-0159</t>
-  </si>
-  <si>
-    <t>rua pernambuco</t>
-  </si>
-  <si>
-    <t>(47) 3363-8057</t>
-  </si>
-  <si>
-    <t>estados</t>
-  </si>
-  <si>
-    <t>(47) 3264-1275</t>
-  </si>
-  <si>
-    <t>rua dom abelardo</t>
-  </si>
-  <si>
-    <t>88337-145</t>
-  </si>
-  <si>
-    <t>rua juvêncio delfino da silva</t>
-  </si>
-  <si>
-    <t>(47) 3361-9365</t>
-  </si>
-  <si>
-    <t>(47) 3264-1265</t>
-  </si>
-  <si>
-    <t>rua dom fradique</t>
-  </si>
-  <si>
-    <t>jardim iate clube</t>
-  </si>
-  <si>
-    <t>88337-250</t>
-  </si>
-  <si>
-    <t>rua miguel matte</t>
-  </si>
-  <si>
-    <t>taquaras</t>
-  </si>
-  <si>
-    <t>88331-030</t>
-  </si>
-  <si>
-    <t>(47) 3367-4260</t>
-  </si>
-  <si>
-    <t>(47) 3264-9733</t>
-  </si>
-  <si>
-    <t>rua jardim da saudade</t>
-  </si>
-  <si>
-    <t>88332-055</t>
-  </si>
-  <si>
-    <t>rua paquistão</t>
-  </si>
-  <si>
-    <t>(47) 3360-7025</t>
-  </si>
-  <si>
-    <t>88338-065</t>
-  </si>
-  <si>
-    <t>rua maria maurícia pereira</t>
-  </si>
-  <si>
-    <t>são judas tadeu</t>
-  </si>
-  <si>
-    <t>88332-460</t>
-  </si>
-  <si>
-    <t>(47) 3363-4605</t>
-  </si>
-  <si>
-    <t>(47) 3363-9873</t>
-  </si>
-  <si>
-    <t>rua bom retiro</t>
-  </si>
-  <si>
-    <t>municípios</t>
-  </si>
-  <si>
-    <t>88337-420</t>
-  </si>
-  <si>
-    <t>rua angelina, anexo ao caic</t>
-  </si>
-  <si>
-    <t>88337-470</t>
-  </si>
-  <si>
-    <t>anexo ao caic</t>
-  </si>
-  <si>
-    <t>(47) 3363-5245</t>
-  </si>
-  <si>
-    <t>rua maria mansoto</t>
-  </si>
-  <si>
-    <t>88332-500</t>
-  </si>
-  <si>
-    <t>(47) 3366-8142</t>
-  </si>
-  <si>
-    <t>(47) 3366-4269</t>
-  </si>
-  <si>
-    <t>rua itália</t>
-  </si>
-  <si>
-    <t>88338-265</t>
-  </si>
-  <si>
-    <t>(47) 3263-0947</t>
-  </si>
-  <si>
-    <t>ariribá</t>
-  </si>
-  <si>
-    <t>88333-120</t>
-  </si>
-  <si>
-    <t>(47) 3361-1186</t>
-  </si>
-  <si>
-    <t>linha de acesso praias</t>
-  </si>
-  <si>
-    <t>avenida rodesino pavan - linha de acesso praias</t>
-  </si>
-  <si>
-    <t>avenida dos tucanos</t>
-  </si>
-  <si>
-    <t>88338-610</t>
-  </si>
-  <si>
-    <t>(47) 3361-9356</t>
-  </si>
-  <si>
-    <t>(47) 3366-8219</t>
-  </si>
-  <si>
-    <t>rua 3020</t>
-  </si>
-  <si>
-    <t>centro</t>
-  </si>
-  <si>
-    <t>(47) 3267-7019</t>
-  </si>
-  <si>
-    <t>avenida Hermógenes Assis Feijó</t>
-  </si>
-  <si>
-    <t>88340-000</t>
-  </si>
-  <si>
-    <t>(47) 3361-5856</t>
-  </si>
-  <si>
-    <t>(47) 3366-6292</t>
-  </si>
-  <si>
-    <t>rua vereador domingos fonseca</t>
-  </si>
-  <si>
-    <t>praia do estaleiro</t>
-  </si>
-  <si>
-    <t>88334-080</t>
-  </si>
-  <si>
-    <t>(47) 3267-7176</t>
-  </si>
-  <si>
     <t>C.E.M. DONA LILI</t>
-  </si>
-  <si>
-    <t>RUA FERMINO TAVEIRA CRUZ</t>
-  </si>
-  <si>
-    <t>BARRA</t>
-  </si>
-  <si>
-    <t>88332-050</t>
-  </si>
-  <si>
-    <t>(47) 3267-7042</t>
-  </si>
-  <si>
-    <t>RUA HIGINO JOÃO PIO</t>
-  </si>
-  <si>
-    <t>(47) 3264-7881</t>
-  </si>
-  <si>
-    <t>AVENIDA SANTA CATARINA</t>
-  </si>
-  <si>
-    <t>(47) 3267-7074</t>
-  </si>
-  <si>
-    <t>RUA DOM HENRIQUE</t>
-  </si>
-  <si>
-    <t>88337-260</t>
-  </si>
-  <si>
-    <t>(47) 3267-7188</t>
-  </si>
-  <si>
-    <t>RUA JOSÉ HONORATO DA SILVA - ESQ. JOSÉ ALVES CABRA</t>
-  </si>
-  <si>
-    <t>ESQ. JOSÉ ALVES CABRA</t>
-  </si>
-  <si>
-    <t>88336-070</t>
-  </si>
-  <si>
-    <t>(47) 3366-8706</t>
-  </si>
-  <si>
-    <t>RUA PARAGUAI</t>
-  </si>
-  <si>
-    <t>88338-190</t>
-  </si>
-  <si>
-    <t>(47) 3360-0728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUA ITÁLIA </t>
-  </si>
-  <si>
-    <t>88338-260</t>
-  </si>
-  <si>
-    <t>(47) 3267-7021</t>
-  </si>
-  <si>
-    <t>RUA DOM FRANCISCO</t>
-  </si>
-  <si>
-    <t>88330-239</t>
-  </si>
-  <si>
-    <t>(47) 3360-0716</t>
-  </si>
-  <si>
-    <t>AVENIDA RODESINDO PAVAN</t>
-  </si>
-  <si>
-    <t>88333-150</t>
-  </si>
-  <si>
-    <t>(47) 3267-7085</t>
-  </si>
-  <si>
-    <t>RUA BIGUAÇU</t>
-  </si>
-  <si>
-    <t>(47) 3268-7303</t>
-  </si>
-  <si>
-    <t>RUA 2450</t>
-  </si>
-  <si>
-    <t>88330-410</t>
-  </si>
-  <si>
-    <t>(47) 3267-7078</t>
   </si>
   <si>
     <t>NEI - DONA MARIA FRANCISCA</t>
   </si>
   <si>
     <t>NEI - MEU PRIMEIRO PASSO</t>
+  </si>
+  <si>
+    <t>3123</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>SME - ALMOXARIFADO</t>
+  </si>
+  <si>
+    <t>(47) 3267-7038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA DOM MIGUEL </t>
+  </si>
+  <si>
+    <t>VILA REAL</t>
+  </si>
+  <si>
+    <t>88337-140</t>
   </si>
 </sst>
 </file>
@@ -1607,9 +1226,9 @@
   <dimension ref="A1:AE701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1747,24 +1366,12 @@
       <c r="D3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="20">
-        <v>350</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>145</v>
-      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="25" t="s">
         <v>15</v>
       </c>
@@ -1806,24 +1413,12 @@
       <c r="D4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="25" t="s">
         <v>15</v>
       </c>
@@ -1865,24 +1460,12 @@
       <c r="D5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="20">
-        <v>3929</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="25" t="s">
         <v>15</v>
       </c>
@@ -1924,24 +1507,12 @@
       <c r="D6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="20">
-        <v>307</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="25" t="s">
         <v>15</v>
       </c>
@@ -1983,24 +1554,12 @@
       <c r="D7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="20">
-        <v>76</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>161</v>
-      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="25" t="s">
         <v>15</v>
       </c>
@@ -2042,24 +1601,12 @@
       <c r="D8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="20">
-        <v>137</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="25" t="s">
         <v>15</v>
       </c>
@@ -2101,24 +1648,12 @@
       <c r="D9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="20">
-        <v>124</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>170</v>
-      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="25" t="s">
         <v>15</v>
       </c>
@@ -2158,26 +1693,14 @@
         <v>41</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="20">
-        <v>360</v>
-      </c>
-      <c r="H10" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>173</v>
-      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="25" t="s">
         <v>15</v>
       </c>
@@ -2219,24 +1742,12 @@
       <c r="D11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="25" t="s">
         <v>15</v>
       </c>
@@ -2276,26 +1787,14 @@
         <v>46</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="20">
-        <v>756</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>150</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="25" t="s">
         <v>15</v>
       </c>
@@ -2337,24 +1836,12 @@
       <c r="D13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="20">
-        <v>598</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>182</v>
-      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="25" t="s">
         <v>15</v>
       </c>
@@ -2396,24 +1883,12 @@
       <c r="D14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="20">
-        <v>500</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="25" t="s">
         <v>15</v>
       </c>
@@ -2455,24 +1930,12 @@
       <c r="D15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="20">
-        <v>518</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="25" t="s">
         <v>15</v>
       </c>
@@ -2514,24 +1977,12 @@
       <c r="D16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="20">
-        <v>331</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>173</v>
-      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="25" t="s">
         <v>15</v>
       </c>
@@ -2573,24 +2024,12 @@
       <c r="D17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" s="20">
-        <v>100</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="25" t="s">
         <v>15</v>
       </c>
@@ -2632,24 +2071,12 @@
       <c r="D18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="20">
-        <v>225</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="25" t="s">
         <v>15</v>
       </c>
@@ -2691,24 +2118,12 @@
       <c r="D19" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>202</v>
-      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="25" t="s">
         <v>15</v>
       </c>
@@ -2750,24 +2165,12 @@
       <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="20">
-        <v>360</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>205</v>
-      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="25" t="s">
         <v>15</v>
       </c>
@@ -2809,24 +2212,12 @@
       <c r="D21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="20">
-        <v>22</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="25" t="s">
         <v>15</v>
       </c>
@@ -2868,24 +2259,12 @@
       <c r="D22" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="20">
-        <v>585</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>213</v>
-      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="25" t="s">
         <v>15</v>
       </c>
@@ -2927,24 +2306,12 @@
       <c r="D23" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="25" t="s">
         <v>15</v>
       </c>
@@ -2986,24 +2353,12 @@
       <c r="D24" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" s="20">
-        <v>70</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="25" t="s">
         <v>15</v>
       </c>
@@ -3045,24 +2400,12 @@
       <c r="D25" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="20">
-        <v>595</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="25" t="s">
         <v>15</v>
       </c>
@@ -3104,24 +2447,12 @@
       <c r="D26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="20">
-        <v>1001</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>223</v>
-      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="25" t="s">
         <v>15</v>
       </c>
@@ -3163,24 +2494,12 @@
       <c r="D27" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="25" t="s">
         <v>15</v>
       </c>
@@ -3222,24 +2541,12 @@
       <c r="D28" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G28" s="20">
-        <v>290</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>231</v>
-      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="25" t="s">
         <v>15</v>
       </c>
@@ -3281,24 +2588,12 @@
       <c r="D29" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="25" t="s">
         <v>15</v>
       </c>
@@ -3340,24 +2635,12 @@
       <c r="D30" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="G30" s="20">
-        <v>160</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="25" t="s">
         <v>15</v>
       </c>
@@ -3399,24 +2682,12 @@
       <c r="D31" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="25" t="s">
         <v>15</v>
       </c>
@@ -3458,24 +2729,12 @@
       <c r="D32" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G32" s="20">
-        <v>60</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>231</v>
-      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="25" t="s">
         <v>15</v>
       </c>
@@ -3517,24 +2776,12 @@
       <c r="D33" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="G33" s="20">
-        <v>879</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>243</v>
-      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="25" t="s">
         <v>15</v>
       </c>
@@ -3574,26 +2821,14 @@
         <v>111</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="G34" s="20">
-        <v>219</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>248</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="25" t="s">
         <v>15</v>
       </c>
@@ -3635,24 +2870,12 @@
       <c r="D35" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>170</v>
-      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="25" t="s">
         <v>15</v>
       </c>
@@ -3694,24 +2917,12 @@
       <c r="D36" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="20">
-        <v>637</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>238</v>
-      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="25" t="s">
         <v>15</v>
       </c>
@@ -3753,24 +2964,12 @@
       <c r="D37" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="20">
-        <v>903</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>255</v>
-      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="25" t="s">
         <v>15</v>
       </c>
@@ -3812,24 +3011,12 @@
       <c r="D38" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>259</v>
-      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="25" t="s">
         <v>15</v>
       </c>
@@ -3871,24 +3058,12 @@
       <c r="D39" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="G39" s="20">
-        <v>1005</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>262</v>
-      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="20"/>
       <c r="K39" s="25" t="s">
         <v>15</v>
       </c>
@@ -3930,24 +3105,12 @@
       <c r="D40" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" s="20">
-        <v>977</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>265</v>
-      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="20"/>
       <c r="K40" s="25" t="s">
         <v>15</v>
       </c>
@@ -3989,24 +3152,12 @@
       <c r="D41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="20">
-        <v>450</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="25" t="s">
         <v>15</v>
       </c>
@@ -4048,24 +3199,12 @@
       <c r="D42" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="G42" s="20">
-        <v>1405</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>271</v>
-      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="25" t="s">
         <v>15</v>
       </c>
@@ -4107,24 +3246,12 @@
       <c r="D43" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="G43" s="20">
-        <v>841</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="25" t="s">
         <v>15</v>
       </c>
@@ -4166,24 +3293,12 @@
       <c r="D44" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G44" s="20">
-        <v>420</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="25" t="s">
         <v>15</v>
       </c>
@@ -4213,19 +3328,45 @@
       <c r="AE44" s="6"/>
     </row>
     <row r="45" spans="1:31" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
+      <c r="A45" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="20">
+        <v>680</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>1</v>
+      </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
